--- a/materials/reading-ranger/stimuli/passage-error-excels/set-11b/cupcakes_11g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-11b/cupcakes_11g.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="333">
   <si>
     <t xml:space="preserve">Cupcakes,</t>
   </si>
@@ -871,7 +871,10 @@
     <t xml:space="preserve">mi</t>
   </si>
   <si>
-    <t xml:space="preserve">xu</t>
+    <t xml:space="preserve">xur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">mouth</t>
@@ -1635,9 +1638,9 @@
   <dimension ref="A1:SZ1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="MT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="MT1" activeCellId="0" sqref="MT1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -3403,7 +3406,7 @@
         <v>283</v>
       </c>
       <c r="JR2" s="7" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="JS2" s="7" t="s">
         <v>119</v>
@@ -3412,19 +3415,19 @@
         <v>120</v>
       </c>
       <c r="JU2" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="JV2" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="JW2" s="7" t="s">
         <v>122</v>
       </c>
       <c r="JX2" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="JY2" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="JZ2" s="7" t="s">
         <v>114</v>
@@ -3433,13 +3436,13 @@
         <v>276</v>
       </c>
       <c r="KB2" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="KC2" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="KD2" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="KE2" s="7" t="s">
         <v>14</v>
@@ -3451,7 +3454,7 @@
         <v>276</v>
       </c>
       <c r="KH2" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="KI2" s="7" t="s">
         <v>270</v>
@@ -3475,16 +3478,16 @@
         <v>156</v>
       </c>
       <c r="KP2" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="KQ2" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="KR2" s="7" t="s">
         <v>111</v>
       </c>
       <c r="KS2" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="KT2" s="7" t="s">
         <v>237</v>
@@ -3523,7 +3526,7 @@
         <v>205</v>
       </c>
       <c r="LF2" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="LG2" s="7" t="s">
         <v>231</v>
@@ -3532,31 +3535,31 @@
         <v>160</v>
       </c>
       <c r="LI2" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="LJ2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="LK2" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="LL2" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="LM2" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="LN2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="LO2" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="LP2" s="7" t="s">
         <v>172</v>
       </c>
       <c r="LQ2" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="LR2" s="7" t="s">
         <v>139</v>
@@ -3574,19 +3577,19 @@
         <v>253</v>
       </c>
       <c r="LW2" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="LX2" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="LY2" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="LZ2" s="7" t="s">
         <v>175</v>
       </c>
       <c r="MA2" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="MB2" s="7" t="s">
         <v>1</v>
@@ -3595,13 +3598,13 @@
         <v>119</v>
       </c>
       <c r="MD2" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="ME2" s="7" t="s">
         <v>168</v>
       </c>
       <c r="MF2" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="MG2" s="7" t="s">
         <v>238</v>
@@ -3610,7 +3613,7 @@
         <v>87</v>
       </c>
       <c r="MI2" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="MJ2" s="7" t="s">
         <v>205</v>
@@ -3619,10 +3622,10 @@
         <v>108</v>
       </c>
       <c r="ML2" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="MM2" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="MN2" s="7" t="s">
         <v>146</v>
@@ -3637,28 +3640,28 @@
         <v>181</v>
       </c>
       <c r="MR2" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="MS2" s="7" t="s">
         <v>245</v>
       </c>
       <c r="MT2" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="MU2" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="MV2" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="MW2" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="MX2" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="MY2" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="MZ2" s="7"/>
       <c r="NA2" s="7"/>
@@ -3671,7 +3674,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0</v>
@@ -4770,7 +4773,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0</v>
@@ -5869,7 +5872,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0</v>
@@ -6968,7 +6971,7 @@
     </row>
     <row r="6" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>0</v>
@@ -8067,7 +8070,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0</v>
@@ -9166,7 +9169,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>0</v>
@@ -10265,7 +10268,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>0</v>
@@ -11364,7 +11367,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>0</v>
@@ -12463,7 +12466,7 @@
     </row>
     <row r="11" s="23" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B11" s="20" t="n">
         <v>0</v>
@@ -13562,7 +13565,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0</v>
@@ -14661,7 +14664,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>0</v>
@@ -15760,7 +15763,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>0</v>
@@ -16859,7 +16862,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -17234,7 +17237,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
